--- a/Archive/original-excel-sources/budget_jeanre Backup with all accounts.xlsx
+++ b/Archive/original-excel-sources/budget_jeanre Backup with all accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos-Personal/ftrack/original-excel-sources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos-Personal/ftrack/Archive/original-excel-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793D98F-D01F-1C45-92BB-CB4391B7E531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26710B7F-9E03-3545-B906-F9ED197CD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-68800" yWindow="-10980" windowWidth="68800" windowHeight="28300" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -10239,6 +10239,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10246,7 +10247,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -10844,6 +10844,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10851,7 +10852,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:gradFill flip="none" rotWithShape="1">
@@ -13017,7 +13017,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="109" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="109" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -17497,8 +17497,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
-      <selection activeCell="Y21" sqref="Y21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17509,8 +17509,8 @@
     <col min="5" max="10" width="15.1640625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="17" width="16.83203125" hidden="1" customWidth="1"/>
-    <col min="18" max="23" width="16.83203125" customWidth="1"/>
+    <col min="13" max="18" width="16.83203125" hidden="1" customWidth="1"/>
+    <col min="19" max="23" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="17" thickBot="1" x14ac:dyDescent="0.25">

--- a/Archive/original-excel-sources/budget_jeanre Backup with all accounts.xlsx
+++ b/Archive/original-excel-sources/budget_jeanre Backup with all accounts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay/GIT-Repos-Personal/ftrack/Archive/original-excel-sources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26710B7F-9E03-3545-B906-F9ED197CD781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB46B61C-231D-0D4A-A1AD-DEEDF1E31999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
+    <workbookView xWindow="-220" yWindow="580" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{F25DD163-696E-F842-A897-5E899A2812A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Jeanre Transactional" sheetId="11" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="241">
   <si>
     <t>Jeanre Transactional</t>
   </si>
@@ -778,6 +778,9 @@
   </si>
   <si>
     <t>Child Fund</t>
+  </si>
+  <si>
+    <t>Child</t>
   </si>
 </sst>
 </file>
@@ -9969,73 +9972,24 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:marker>
-              <c:symbol val="circle"/>
-              <c:size val="6"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:schemeClr val="bg1"/>
-                </a:solidFill>
-                <a:ln w="9525">
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:round/>
-                </a:ln>
-                <a:effectLst>
-                  <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                    <a:srgbClr val="000000">
-                      <a:alpha val="63000"/>
-                    </a:srgbClr>
-                  </a:outerShdw>
-                </a:effectLst>
-              </c:spPr>
-            </c:marker>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:ln w="34925" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-4137-9247-9BEB-E94FF6BA0DB9}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'Bernice Credit Card'!$K$7:$U$7</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v> 2025-07-01 </c:v>
+                  <c:v> 2025-08-01 </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> 2025-08-01 </c:v>
+                  <c:v> 2025-09-01 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> 2025-09-01 </c:v>
+                  <c:v> 2025-10-01 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> 2025-10-01 </c:v>
+                  <c:v> 2025-11-01 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> 2025-11-01 </c:v>
-                </c:pt>
-                <c:pt idx="5">
                   <c:v> 2025-12-01 </c:v>
                 </c:pt>
               </c:strCache>
@@ -10046,24 +10000,21 @@
               <c:f>'Bernice Credit Card'!$K$16:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>_("R"* #,##0.00_);_("R"* \(#,##0.00\);_("R"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1163.4183333333333</c:v>
+                  <c:v>-7495.0310416666671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-2679.6577142361111</c:v>
+                  <c:v>-5599.649183289931</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-717.0612698306569</c:v>
+                  <c:v>-3677.8109531400196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1272.9297499446236</c:v>
+                  <c:v>-1729.1470643609323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3272.9297499446238</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5272.9297499446238</c:v>
+                  <c:v>246.71692453236304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12250,8 +12201,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="btrn" displayName="btrn" ref="A1:W14" totalsRowShown="0" headerRowDxfId="304" dataDxfId="303">
-  <autoFilter ref="A1:W14" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FA1DA390-7C62-034C-B072-5AE198A0EE1C}" name="btrn" displayName="btrn" ref="A1:W15" totalsRowShown="0" headerRowDxfId="304" dataDxfId="303">
+  <autoFilter ref="A1:W15" xr:uid="{92565AF6-51CB-F740-ACD0-AD376C5F8FE0}"/>
   <tableColumns count="23">
     <tableColumn id="5" xr3:uid="{0BB631CD-7A04-8A42-B7DB-927BAF556EEE}" name="Movement" dataDxfId="302"/>
     <tableColumn id="6" xr3:uid="{F2B17D4B-E397-234D-B50E-5D377954B9CE}" name="Account Secondary" dataDxfId="301"/>
@@ -17495,10 +17446,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3966FA5A-65C3-DE4D-964E-13540A60950B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView showGridLines="0" zoomScale="137" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17637,7 +17588,7 @@
       <c r="R2" s="21">
         <v>10300</v>
       </c>
-      <c r="S2" s="23">
+      <c r="S2" s="21">
         <v>10300</v>
       </c>
       <c r="T2" s="23">
@@ -17680,8 +17631,8 @@
         <v>125</v>
       </c>
       <c r="P3" s="106">
-        <f>O14</f>
-        <v>100</v>
+        <f>O15</f>
+        <v>84</v>
       </c>
       <c r="Q3" s="106">
         <v>30</v>
@@ -17690,24 +17641,23 @@
         <v>33</v>
       </c>
       <c r="S3" s="89">
-        <f>R14</f>
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="T3" s="89">
-        <f>S14</f>
-        <v>148</v>
+        <f>S15</f>
+        <v>184</v>
       </c>
       <c r="U3" s="89">
-        <f>T14</f>
-        <v>173</v>
+        <f>T15</f>
+        <v>334</v>
       </c>
       <c r="V3" s="89">
-        <f>U14</f>
-        <v>198</v>
+        <f>U15</f>
+        <v>484</v>
       </c>
       <c r="W3" s="89">
-        <f>V14</f>
-        <v>223</v>
+        <f>V15</f>
+        <v>634</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -17833,19 +17783,19 @@
         <v>8000</v>
       </c>
       <c r="S5" s="37">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="T5" s="37">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="U5" s="37">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="V5" s="37">
-        <v>8000</v>
+        <v>7300</v>
       </c>
       <c r="W5" s="37">
-        <v>8000</v>
+        <v>7300</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -17885,19 +17835,19 @@
         <v>110</v>
       </c>
       <c r="S6" s="99">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="T6" s="99">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="U6" s="99">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="V6" s="99">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="W6" s="99">
-        <v>75</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="38" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -18085,19 +18035,19 @@
         <v>200</v>
       </c>
       <c r="S10" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="T10" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="U10" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="V10" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="W10" s="40">
-        <v>200</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -18136,7 +18086,7 @@
         <v>51</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40"/>
@@ -18152,158 +18102,215 @@
         <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-02-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-02-01])</f>
         <v>10</v>
       </c>
-      <c r="N12" s="100">
-        <v>320</v>
-      </c>
-      <c r="O12" s="99"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="99"/>
-      <c r="R12" s="99"/>
-      <c r="S12" s="99"/>
-      <c r="T12" s="99"/>
-      <c r="U12" s="99"/>
-      <c r="V12" s="99"/>
-      <c r="W12" s="99"/>
+      <c r="N12" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-03-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-03-01])</f>
+        <v>614</v>
+      </c>
+      <c r="O12" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-04-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-04-01])</f>
+        <v>16</v>
+      </c>
+      <c r="P12" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-05-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-05-01])</f>
+        <v>530</v>
+      </c>
+      <c r="Q12" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-06-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-06-01])</f>
+        <v>1359</v>
+      </c>
+      <c r="R12" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-07-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-07-01])</f>
+        <v>135</v>
+      </c>
+      <c r="S12" s="99">
+        <v>500</v>
+      </c>
+      <c r="T12" s="99">
+        <v>500</v>
+      </c>
+      <c r="U12" s="99">
+        <v>500</v>
+      </c>
+      <c r="V12" s="99">
+        <v>500</v>
+      </c>
+      <c r="W12" s="99">
+        <v>500</v>
+      </c>
     </row>
     <row r="13" spans="1:23" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99">
+        <f>SUMIF(jtrn[Movement], "Credit", jtrn[2025-02-01]) - SUMIF(jtrn[Movement], "Debit", jtrn[2025-02-01])</f>
+        <v>10</v>
+      </c>
+      <c r="N13" s="100">
+        <v>320</v>
+      </c>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="99"/>
+      <c r="U13" s="99"/>
+      <c r="V13" s="99"/>
+      <c r="W13" s="99"/>
+    </row>
+    <row r="14" spans="1:23" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="40">
+      <c r="C14" s="40">
         <v>0</v>
       </c>
-      <c r="D13" s="40">
+      <c r="D14" s="40">
         <v>0</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E14" s="40">
         <v>0</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F14" s="40">
         <v>0</v>
       </c>
-      <c r="G13" s="40">
+      <c r="G14" s="40">
         <v>0</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H14" s="40">
         <v>0</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I14" s="40">
         <v>0</v>
       </c>
-      <c r="J13" s="40">
+      <c r="J14" s="40">
         <v>0</v>
       </c>
-      <c r="K13" s="40">
+      <c r="K14" s="40">
         <v>0</v>
       </c>
-      <c r="L13" s="81"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="40"/>
+      <c r="N14" s="40"/>
+      <c r="O14" s="40"/>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="40"/>
+      <c r="V14" s="40"/>
+      <c r="W14" s="40"/>
     </row>
-    <row r="14" spans="1:23" s="46" customFormat="1" ht="22" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+    <row r="15" spans="1:23" s="46" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+      <c r="A15" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-05-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-05-01])</f>
         <v>290</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-06-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-06-01])</f>
         <v>90</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-07-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-07-01])</f>
         <v>90</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-08-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-08-01])</f>
         <v>290</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-09-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-09-01])</f>
         <v>990</v>
       </c>
-      <c r="H14" s="45">
+      <c r="H15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-10-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-10-01])</f>
         <v>83</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-11-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-11-01])</f>
         <v>40</v>
       </c>
-      <c r="J14" s="45">
+      <c r="J15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-12-01])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-12-01])</f>
         <v>790</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K15" s="45">
         <f>SUMIF(btrn[[Movement]:[Movement]],"Credit", btrn[2024-12-02])-SUMIF(btrn[[Movement]:[Movement]],"Debit",btrn[2024-12-02])</f>
         <v>790</v>
       </c>
-      <c r="L14" s="82"/>
-      <c r="M14" s="12">
+      <c r="L15" s="82"/>
+      <c r="M15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-02-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-02-01])</f>
-        <v>330</v>
-      </c>
-      <c r="N14" s="12">
+        <v>320</v>
+      </c>
+      <c r="N15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-03-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-03-01])</f>
-        <v>131</v>
-      </c>
-      <c r="O14" s="12">
+        <v>-483</v>
+      </c>
+      <c r="O15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-04-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-04-01])</f>
-        <v>100</v>
-      </c>
-      <c r="P14" s="12">
+        <v>84</v>
+      </c>
+      <c r="P15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-05-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-05-01])</f>
-        <v>-18</v>
-      </c>
-      <c r="Q14" s="12">
+        <v>-564</v>
+      </c>
+      <c r="Q15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-06-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-06-01])</f>
-        <v>55</v>
-      </c>
-      <c r="R14" s="12">
+        <v>-1304</v>
+      </c>
+      <c r="R15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-07-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-07-01])</f>
-        <v>123</v>
-      </c>
-      <c r="S14" s="12">
+        <v>-12</v>
+      </c>
+      <c r="S15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-08-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-08-01])</f>
-        <v>148</v>
-      </c>
-      <c r="T14" s="12">
+        <v>184</v>
+      </c>
+      <c r="T15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-09-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-09-01])</f>
-        <v>173</v>
-      </c>
-      <c r="U14" s="12">
+        <v>334</v>
+      </c>
+      <c r="U15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-10-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-10-01])</f>
-        <v>198</v>
-      </c>
-      <c r="V14" s="12">
+        <v>484</v>
+      </c>
+      <c r="V15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-11-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-11-01])</f>
-        <v>223</v>
-      </c>
-      <c r="W14" s="12">
+        <v>634</v>
+      </c>
+      <c r="W15" s="12">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-12-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-12-01])</f>
-        <v>248</v>
+        <v>784</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N14:W14">
+  <conditionalFormatting sqref="N15:W15">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -18327,8 +18334,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18336,8 +18343,8 @@
     <col min="1" max="1" width="20.1640625" customWidth="1"/>
     <col min="2" max="2" width="29.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="16.5" hidden="1" customWidth="1"/>
-    <col min="11" max="15" width="18.33203125" hidden="1" customWidth="1"/>
-    <col min="16" max="21" width="18.33203125" customWidth="1"/>
+    <col min="11" max="16" width="18.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="21" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
@@ -18526,27 +18533,26 @@
         <v>-2824</v>
       </c>
       <c r="P9" s="57">
-        <v>-2824</v>
+        <v>-5447</v>
       </c>
       <c r="Q9" s="57">
-        <f t="shared" ref="Q9:U9" si="0">P16</f>
-        <v>-1163.4183333333333</v>
+        <v>-5447</v>
       </c>
       <c r="R9" s="57">
-        <f t="shared" si="0"/>
-        <v>-2679.6577142361111</v>
+        <f t="shared" ref="Q9:U9" si="0">Q16</f>
+        <v>-7495.0310416666671</v>
       </c>
       <c r="S9" s="57">
         <f t="shared" si="0"/>
-        <v>-717.0612698306569</v>
+        <v>-5599.649183289931</v>
       </c>
       <c r="T9" s="57">
         <f t="shared" si="0"/>
-        <v>1272.9297499446236</v>
+        <v>-3677.8109531400196</v>
       </c>
       <c r="U9" s="57">
         <f t="shared" si="0"/>
-        <v>3272.9297499446238</v>
+        <v>-1729.1470643609323</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -18582,28 +18588,28 @@
         <v>39.418333333333337</v>
       </c>
       <c r="P10" s="52">
-        <f t="shared" si="1"/>
-        <v>39.418333333333337</v>
+        <f>IF(P9 &lt;= 0, (P9*$B$3)*-1, 0)</f>
+        <v>76.031041666666681</v>
       </c>
       <c r="Q10" s="52">
-        <f t="shared" si="1"/>
-        <v>16.239380902777778</v>
+        <f>IF(Q9 &lt;= 0, (Q9*$B$3)*-1, 0)</f>
+        <v>76.031041666666681</v>
       </c>
       <c r="R10" s="52">
         <f t="shared" si="1"/>
-        <v>37.403555594545722</v>
+        <v>104.61814162326391</v>
       </c>
       <c r="S10" s="52">
         <f t="shared" si="1"/>
-        <v>10.008980224719586</v>
+        <v>78.161769850088632</v>
       </c>
       <c r="T10" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51.336111220912777</v>
       </c>
       <c r="U10" s="52">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>24.136011106704682</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
@@ -18641,7 +18647,7 @@
       <c r="T11" s="52"/>
       <c r="U11" s="52"/>
     </row>
-    <row r="12" spans="1:21" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" s="3" customFormat="1" ht="22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>51</v>
       </c>
@@ -18711,7 +18717,9 @@
       <c r="P13" s="52">
         <v>300</v>
       </c>
-      <c r="Q13" s="52"/>
+      <c r="Q13" s="52">
+        <v>472</v>
+      </c>
       <c r="R13" s="52"/>
       <c r="S13" s="52"/>
       <c r="T13" s="52"/>
@@ -18836,27 +18844,27 @@
       </c>
       <c r="P16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-07-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-07-01])</f>
-        <v>-1163.4183333333333</v>
+        <v>-3823.0310416666666</v>
       </c>
       <c r="Q16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-08-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-08-01])</f>
-        <v>-2679.6577142361111</v>
+        <v>-7495.0310416666671</v>
       </c>
       <c r="R16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-09-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-09-01])</f>
-        <v>-717.0612698306569</v>
+        <v>-5599.649183289931</v>
       </c>
       <c r="S16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-10-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-10-01])</f>
-        <v>1272.9297499446236</v>
+        <v>-3677.8109531400196</v>
       </c>
       <c r="T16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-11-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-11-01])</f>
-        <v>3272.9297499446238</v>
+        <v>-1729.1470643609323</v>
       </c>
       <c r="U16" s="12">
         <f>SUMIF(bcc_1[Movement], "Credit", bcc_1[2025-12-01]) - SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-12-01])</f>
-        <v>5272.9297499446238</v>
+        <v>246.71692453236304</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="22" x14ac:dyDescent="0.3">
@@ -18896,27 +18904,27 @@
       </c>
       <c r="P17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-07-01])</f>
-        <v>339.41833333333335</v>
+        <v>376.03104166666668</v>
       </c>
       <c r="Q17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-08-01])</f>
-        <v>3516.2393809027776</v>
+        <v>4048.0310416666666</v>
       </c>
       <c r="R17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-09-01])</f>
-        <v>37.403555594545722</v>
+        <v>104.61814162326391</v>
       </c>
       <c r="S17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-10-01])</f>
-        <v>10.008980224719586</v>
+        <v>78.161769850088632</v>
       </c>
       <c r="T17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-11-01])</f>
-        <v>0</v>
+        <v>51.336111220912777</v>
       </c>
       <c r="U17" s="84">
         <f>SUMIF(bcc_1[Movement], "Debit", bcc_1[2025-12-01])</f>
-        <v>0</v>
+        <v>24.136011106704682</v>
       </c>
     </row>
   </sheetData>
@@ -19456,11 +19464,11 @@
       <c r="J15" s="51"/>
       <c r="K15" s="52">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-02-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-02-01])</f>
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L15" s="52">
         <f>SUMIF(btrn[Movement], "Credit", btrn[2025-03-01]) - SUMIF(btrn[Movement], "Debit", btrn[2025-03-01])</f>
-        <v>131</v>
+        <v>-483</v>
       </c>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
@@ -19562,11 +19570,11 @@
       </c>
       <c r="K17" s="12">
         <f>SUMIF(jcc[Movement], "Credit", jcc[2025-02-01]) - SUMIF(jcc[Movement], "Debit", jcc[2025-02-01])</f>
-        <v>-9310</v>
+        <v>-9300</v>
       </c>
       <c r="L17" s="12">
         <f>SUMIF(jcc[Movement], "Credit", jcc[2025-03-01]) - SUMIF(jcc[Movement], "Debit", jcc[2025-03-01])</f>
-        <v>-8667.4375</v>
+        <v>-8053.4375</v>
       </c>
       <c r="M17" s="12">
         <f>SUMIF(jcc[Movement], "Credit", jcc[01/04/2025]) - SUMIF(jcc[Movement], "Debit", jcc[01/04/2025])</f>
@@ -19622,11 +19630,11 @@
       <c r="J18" s="12"/>
       <c r="K18" s="84">
         <f>SUMIF(jcc[Movement], "Debit", jcc[2025-02-01])</f>
-        <v>1154</v>
+        <v>1144</v>
       </c>
       <c r="L18" s="84">
         <f>SUMIF(jcc[Movement], "Debit", jcc[2025-03-01])</f>
-        <v>1167.4375</v>
+        <v>553.4375</v>
       </c>
       <c r="M18" s="84">
         <f>SUMIF(jcc[Movement], "Debit", jcc[01/04/2025])</f>
